--- a/he.flores.for_translit.xlsx
+++ b/he.flores.for_translit.xlsx
@@ -3078,13 +3078,6 @@
     <t>«Մենք հիմա ունենք 4 ամսական մկներ, որոնք, նախկինում շաքարային դիաբետ ունենալով, այժմ չունեն այն,- ավելացրեց նա։»</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayn Haravayin Afrikayi glkhavor tesarzhan vayrerits mekn e yev hamarvum e Haravayin Afrikayi azgayin parkeri (SANParks) droshakiry:
-</t>
-  </si>
-  <si>
-    <t>Arabnery nuynpes Islam yen berel ays yerkrner yev ayn yerkar chanaparh e antsel Komoryan kghzinerum u Mayottayum:</t>
-  </si>
-  <si>
     <t>Ayspes, yerb matity haytnvets, ayn lav ynker er shateri hamar.</t>
   </si>
   <si>
@@ -3134,10 +3127,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tarva amenamecmrtsashary teghi e unenum dektemberin Las Kanitasi poloyi dashterum:
-</t>
-  </si>
-  <si>
     <t>Lerrnayin tserekayin zhamanakov 10:00 - 11:00-n ynkaczhamanakahatvatsum bantarkyalneri koghmits bakum hrdeh brrnkvets.</t>
   </si>
   <si>
@@ -3157,45 +3146,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">qani vor Montevideon hasarakatsits harav e, apa ayntegh amarr e linum, yerb hyusisayin kisagndum dzmerr e yev yndhakarraky:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-rd dari Paragvayy, vory nakhkinum anvanum ein «Hndikneri hska gavarr», steghtsvel e ispanatsi nvachoghneri yev bnik hndik tsegheri bakhman hetevanqov:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qani vor mijshrjanayin avtobusnery hachakh bazmamard yen, khorhurd e trvum tomsy gnel nakhapes՝ mi qani or arraj.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundarbanneri taratsqn yndgrkum e 3 850 qarr. km, vorits mot mek yerrordy tsatskvace jrayin/chahchayin hatvatsnerov:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honkongi amenalav tesarannery tesnelu hamar՝ durs yekeq kghzuts yev sharzhveq depi hakarrak koghm՝ Kovlun jrvezh:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kryugeri azgayin argelotsy (KAA) ynkace Haravayin Afrikayi hyusis-arevelqum yev taratsvum e arevelqum՝ Mozambiki sahmani yerkaynqov, hyusisum՝ Zimbabven, isk haravayin sahmany Kokordilosi getn e:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomayi shurj hasnelu hamar karogh yeq ogtagortsel boda-bodan (mototsiklet taqsi). Karch zbosanqi hamar sovorakan (teghakan) giny ~500 kongoakan frank e.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qaghaqy nayev skzbnaket e Nyiragongoyi hrabukhy magltselu hamar՝ Afrikayum hetapndelov vorosh amenaezhan lerrnayin gorilanerin:
-</t>
-  </si>
-  <si>
-    <t>Hyusisum taratsashrjany sahmanaktsum e Sahelin, isk haravum yev arevmutqum՝ Atlantyan ovkianosin:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagaskary, ankhos, amenametsn e, yev vayri kendanakan ashkharhi arrumov՝ mi yuratesak mayrtsamaq:
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ayspisi banery darrnum yen arrandzin gitakan chyugher, voronq kentronanum yen irakan kyanqi khndirneri hamar lutsumner talu vra:
 </t>
   </si>
@@ -3350,79 +3300,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Folqlendi pashtonakan arzhuythy Folqlendi funtn e (FKP), vory hamarzheq e britanakan funtin (GBP):
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrtsashareri yev poloyi khagheri tomseri gnman vayreri masin teghekatvuthyun stanalu hamar՝ tes Asosasion Argentina de Polo:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentinan haytni e vorpes ashkharhi lavaguyn poloyi thim yev khaghatsvoghner unetsvogh yerkrnerits meky:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerb 1537 th. himnadrvets Asunsyony, Paragvayy karoghatsel e metsamasamb pahpanel ir bnik nkaragirn u inqnuthyuny:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ispanatsinern sksetsin gaghuthatsman zhamanakashrjany, vory tevets yereq dar:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerku ashtarakneri bardzruthyuny hasnum e 83 metri, dra yerkaruthyuny 378 metr e, yev uni 3,5 m laynuthyamb yerku sharq:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyapok geti kamurjy chopanayin kamurj e. Ayn dzgvum e Oyapok geti vrayov՝ irar miatsnelu Braziliayi Oyapok qaghaqn u Fransiakan Gvianayi Sevnth-Zhorzh de l'Oyapoky.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1966 thvakanits sksacSundarbannery yeghel yen vayri bnuthyan argelavayrer, yev motavor hashvarknerov taratsqum kan 400 bengalyan thagavorakan vagr yev mot 30,000 pisakavor yeghjeru:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinuthyunneri shqerthy, vory dzevavorum e Hong Kongi yerknakamary, nmanetsnum yen shoghshoghun gtsapatkeri, vory nkateli e darrnum Viktoria navahangsti jreri arrkayuthyan shnorhiv:
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Honkongi kghzin ir anunn e talis Honkongi taratsqin yev bazmathiv zbosashrjikneri ushadruthyan glkhavor vayrn e:
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Nayev shahavet karogh e linel Wild Card gnely, vory mutqi hnaravoruthyun e talis Haravayin Afrikayi tarber parker kam amboghj Haravayin Afrikayi Azgayin parker:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da Henri Lyuisi glkhavor kangarrnerits mekn er PBS-i «Afrikyan ashkharhi hrashaliqnery» hatuk thvogharkman ynthatsqum:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990-in ayn avelatsvets hamashkharhayin zharranguthyan vtangvacvayreri tsutsakin՝ yelnelov anapati avazneri vtangi hangamanqits:
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Goman zbosashrjayin qaghaq e Kongoyi Demokratakan Hanrapetuthyan amenaarevelyan hatvatsum՝ Rruandayi harevanuthyamb.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Marokkoyi sulthany verakarrutsets qaghaqy vorpes Daru l-Badya, isk ispanatsi arrevtrakannery, ovqer ayntegh arrevti bazaner ein himnum, dran Kasablanka anuny tvetsin:
-</t>
-  </si>
-  <si>
-    <t>Yevropakan azdetsuthyuny yev gaghuthatsumn sksvets 15-rd darum, yerb portugalatsi yerkrakhuyz Vasko da Gaman gtav Yevropayits Hndkastan tanogh tsovayin ughin:</t>
-  </si>
-  <si>
-    <t>Aveli hyusis ynkacmectaratsqnery nosr yen bnaketsvats, isk voroshnery grethe anbnak anapatner yen:</t>
-  </si>
-  <si>
-    <t>Haravits ayn koghm Niagarayi jrvezhnern e, yev hyusisum e gtnvum Muskokayi yev dran sharunakogh taratsqneri kusakan bnakan geghetskuthyuny:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blogov zbaghvely gortsiq e, vory drdum e hamagortsaktsuthyan yev khrakhusum e usanoghnerin yndlaynel usutsumn avandakan dprotsakan orva sahmannerits durs:
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arhestakan intelekti hetazotuthyunnery nerarrum yen meqenaneri patrastum arrajadranqneri avtomatatsman hamar, voronq pahanjum yen khelatsi varqagits:
 </t>
   </si>
@@ -4522,46 +4407,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Grethe anhnar e Folklandi dramy kghzinerits durs phvokhanakel, usti dramy phvokhanakeq kghzinerits mekneluts arraj:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gumar hnaravor e phvokhanakel kghzineri miak bankum, vory teghakayvace Sthenlium՝ Folklendyan kghzineri ynkeruthyan arevmtyan khanuthits ayn koghm:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarva myus orerin aystegh irakanatsvum yen nayev aveli phvoqr mrtsasharer yev handipumner:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shat teghanqner spasarkvum yen phvoqr chaponakan merdzaphnya avtobusnerov, voronq harmaravet yen u dimatskun:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundarbannery hamarvum yen mangrenineri ashkharhi amenamecaphamerdz gotin, vory dzgvum e 80 km (50 mghon)` aphits hatelov Bangladeshi yev Hndkastani nerqin shrjannery:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa ayn vayrn e, vory britanatsi gaghuthararnery ditarkum ein irentsy, usti, yethe phntrum yeq apatsuyts ays teghanqi gaghuthayin antsyali masin, sa lav taratsq e skselu hamar:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honkong kghzu qaghaqashinuthyan himnakan masy verakangnvogh hoghataratsqnerum՝ hyusiayin aphi yerkaynqov, khit bnaketsvace։
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanayq՝ khorhurd e trvum, vor tsankatsacchamphvordogh kin asi, vor amusnatsace՝ ankakh phastatsi yntanekan kargavichakits:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aveli phvoqr kghzineri mecmasn ankakh petuthyunner yen kam ktsvacyen Fransiayin yev haytni yen vorpes shqegh hangstyan loghapher:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arevelaafrikyan kghzinery Hndkakan ovkianosum yen՝ Afrikayi arevelyan aphits herru:
-</t>
-  </si>
-  <si>
     <t>qani vor usanoghnery hachakh amenashaty qnnadatogh ynthertsvoghnern yen, blog groghn sksum e payqarel` barelavelu ir gravor nyuthery, vorpeszi khusaphi qnnadatuthyunits:</t>
   </si>
   <si>
@@ -4914,115 +4759,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Herravor kghzinerum kredit qartery havanabar chen yndunvi, bayts britanakan yev Miatsyal Nahangneri arzhuythnery karogh yen yndunvel, nakhapes chshteq sephakanatereri het՝ haskanalu, the vorn e vcharman ynduneli methvody:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Britanakan funt sterrlingy, yndhanur arrmamb, yndunvum e kghzineri tsankatsacmasum, inchpes nayev Stenli varkayin qarterov: Miatsyal Nahangneri dolarnery nuynpes hachakh yen yndunvum.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chakoyi shrjanum bnakvum ein bnik tsegheri ayl khmbery, inchpisiq ein guaykurun yev payaguan, voronq goyatevum ein՝ zbaghvelov vorsov, havaqchuthyamb yev dzknorsuthyamb:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guarraninery amenanshanakalits teghabnik khmbern ein, voronq bnakvum ein ayzhmyan Arevelyan Paragvayum, aprelov vorpes kisaqvochvor vorsordner, voronq zbaghvum ein kensaapahovman hamar mshakvogh apranqneri gyughatntesuthyamb.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakhatesvum e, vor kamurjy liarzheq kgortsi 2017 th. septemberin, yerb, inchpes aknkalvum e, Braziliayi maqsaketeri ashkhatanqnery avartin khasnen:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamrji nerqevi ughghahayats cheghqy 15 metr e: Shinararuthyunn avartvel e 2011 th. ogostosin, ayn nuynisk minchev 2017 th. mart amisy phak e yeghel yerthevekuthyan hamar:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisovi vcharov taqsinern arag yev harmaravet mijotsner yen motaka vayrer aytselelu hamar, inchpes orinak՝ Paro (Nu 150) yev Punakha (Nu 200):
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avtobusnern amboghj orva ynthatsqum meknum yen mijshrjanayin avtokayaranits (geti yerkaynqov), chnayacarevelq u Jaqar/Bumthang gnatsvoghnery meknum yen 06:30 - 07:30 mijakayqum։
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakayn antarrnery sosk mangrenu chahichner chen. dranq nerarrum yen zoravor junglineri verjin mnatsuknery, voronq zhamanakin tsatskum ein Ganjethiq harthavayry:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundarbannery hrrchkakvel yen YUNESKO-i hamashkharhayin zharranguthyan vayr: Hndkakan taratsqi nersum arrka antarrayin masy kochvum e Sundarbanneri Azgayin park:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inchpes Haravayin Afrikayi azgayin bolor zbosaygineri paragayum, gortsum yen pahpanuthyan yev mutqi orakan vcharner:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aygin yndgrkum e 19,500 qarrakusi kilometr taratsq yev bazhanvace 14 tarber ekogotineri, vorontsits yuraqanchyurn ajaktsum e vayri bnuthyan tarber chyugheri:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qaghaqy ktruk hakadruthyan mej e gtnvum yerkri myus qaghaqneri het, vorovhetev ayn aveli shat arabakan, qan afrikakan shunch uni.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aysor Timbuktun aghqat qaghaq e, chnayacir heghinakuthyunn ayn gravich e dardznum zbosashrjikneri hamar, uni odanavakayan:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iren veraberogh anmatcheliuthyan hamadrmamb «Timbuktu»-n ogtagortsvel er vorpes phvokhaberuthyun՝ ekzotik, herravor yerkrneri hamar:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minchderr Goman khelamtoren anvtang e, Gomayits durs katarvogh tsankatsacaytseluthyun petq e usumnasirvi՝ haskanalu hamar rrazmakan gortsoghuthyunneri vichaky, vory sharunakvum e Hyusisayin Kivu gavarrum.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002 th. Nyiragongo hrabukhi lavan vochnchatsrets Goman՝ tsatskelov qaghaqi phvoghotsneri metsamasnuthyuny, hatkapes՝ qaghaqi kentrony:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dzhvar che Madinayum gtnel vayrer, vortegh vacharrum yen Marokkoyi aynpisi avandakan irer, inchpes, orinak, thazhin utestn e, kave amaneghen, kashve irer, nargilener yev kakhazarderi hskayakan tesakani, sakayn ays ameny zbosashrjikneri hamar e:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasablankan gnumner katarelu tesankyunits voghj Marokkoyi amenaqich hetaqrqruthyun nerkayatsnogh vayrerits e:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugalatsinery vochnchatsrin yev verakarrutsetsin ayn Kaza Branka anvamb, vorpeszi 1755 th. yerkrasharzhits heto yndameny lqen ayn:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhamanakakits Kasablanka qaghaqy himnadrvel e berbertsi dzknorsneri koghmits m.th.a. 10-rd darum, isk phyunikatsinery, hrromeatsinery yev merenidnern ayn ogtagortsel yen vorpes Anfa kochvogh rrazmavarakan navahangist:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yegheq vchrrakan tghamardkants merzhelu hartsum yev mi՛ vakhetseq dzer kartsiqy pndeluts (kap chuni՝ mshakuthayin taradzaynuthyun e da, the voch, yegha՞v):
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanayq petq e gitaktsen, vor mshakuthayin tarberuthyunneri ardyunqy karogh e linel ayn, inch irenq votndzguthyun khamarevn, yev ansovor ban che, yerb qez hetevum yen, dzerrqits qashum yev ayln:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayev matani kreln e ogtakar (ughghaki voch aynpisin, vory chaphazants thankarzheq e:
-</t>
-  </si>
-  <si>
-    <t>Hamematelu hamar bnakchuthyuny, vory zarmatsnum e shaterin. kan shat afrikyan amerikatsiner, voronq aprum yen AMN-um, qan Kanadayi qaghaqatsiner.</t>
-  </si>
-  <si>
-    <t>Ays ameny yev vorosh ayl baner yndgtsum yen Ontarion vorpes ayn, inch otarneri koghmits hamarvum e orinakeli kanadakan qaghaq.</t>
-  </si>
-  <si>
-    <t>Ottavan Kanadayi hmayich, yerklezu mayraqaghaqn e yev zardarvace arvesti patkerasrahnerov u thangarannerov, voronq i tsuyts yen dnum Kanadayi antsyaln u nerkan:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blogneri normal ogtagortsumy «karogh e uzheghatsnel usanoghnerin՝ darrnalu aveli verlutsakan yev qnnadat. aveli gortsun kerpov ardzaganqelov hamatsantsi nyutherin՝ usanoghnery karogh yen urishneri gravorneri hamateqstum sahmanel irents dirqery, inchpes nayev voroshaki khndirneri vra` irents isk herrankarnern urvagtselu npatakov» (Orraveq, 2002 th.):
-</t>
-  </si>
-  <si>
     <t>Nayev blog varely «stipum e usanoghnerin aveli ymbrrnogh linel irents shrjapatogh ashkharhi nkatmamb»: Lsarani hetaqrqruthyuny bavararelu anhrazheshtuthyunn usanoghnerin vogeshnchum e linel khelatsi yev hetaqrqir (Toto, 2004 thvakan):</t>
   </si>
   <si>
@@ -6331,6 +6067,270 @@
   </si>
   <si>
     <t xml:space="preserve">Montevideon merdzarevadardzayin gotum e. amarrayin amisnerin +30 C-its bardzr jermastichannere sovorakan yerevuyth en:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qani vor Montevideon hasarakatsic harav e, apa ayntegh amarr e linum, yerb hyusisayin kisagndum dzmerr e yev endhakarrake:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grethe anhnar e Folklandi drame kghzinerits durs phokhanakel, usti drame phokhanakeq kghzineric mekneluc arraj:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herravor kghzinerum kredit qartere havanabar chen endunvi, bayc britanakan yev Miacyal Nahangneri arzhuythnere karogh en endunvel, nakhapes chshteq sephakanatereri het՝ haskanalu, the vorn e vcharman enduneli methode:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Britanakan funt sterrlinge, endhanur arrmamb, endunvum e kghzineri cankacats masum, inchpes nayev Stenli varkayin qarterov: Miatsyal Nahangneri dolarnere nuynpes hachakh en endunvum.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumar hnaravor e phokhanakel kghzineri miak bankum, vory teghakayvats e Sthenlium՝ Folklendyan kghzineri enkeruthyan arevmtyan khanuthic ayn koghm:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folqlendi pashtonakan arzhuythe Folqlendi funtn e (FKP), vore hamarzheq e britanakan funtin (GBP):
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrcashareri yev poloyi khagheri tomseri gnman vayreri masin teghekatvuthyun stanalu hamar՝ tes Asosasion Argentina de Polo:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarva myus orerin aystegh irakanatsvum en nayev aveli phoqr mrcasharer yev handipumner:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarva amenamets mrcashare teghi e unenum dektemberin Las Kanitasi poloyi dashterum:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentinan haytni e vorpes ashkharhi lavaguyn poloyi thim yev khaghacoghner unetsogh yerkrnerits meke:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yerb 1537 th. himnadrvec Asunsyone, Paragvayy karoghacel e metsamasamb pahpanel ir bnik nkaragirn u inqnuthyune:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ispanacinern sksecin gaghuthacman zhamanakashrjane, vore tevec yereq dar:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-rd dari Paragvayy, vore nakhkinum anvanum ein «Hndikneri hska gavarr», steghtsvel e ispanatsi nvachoghneri yev bnik hndik cegheri bakhman hetevanqov:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chakoyi shrjanum bnakvum ein bnik cegheri ayl khmbere, inchpisiq ein guaykurun yev payaguan, voronq goyatevum ein՝ zbaghvelov vorsov, havaqchuthyamb yev dzknorsuthyamb:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarraninere amenanshanakalic teghabnik khmbern ein, voronq bnakvum ein ayzhmyan Arevelyan Paragvayum, aprelov vorpes kisaqochor vorsordner, voronq zbaghvum ein kensaapahovman hamar mshakvogh apranqneri gyughatntesuthyamb.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakhatesvum e, vor kamurje liarzheq kgortsi 2017 th. septemberin, yerb, inchpes aknkalvum e, Braziliayi maqsaketeri ashkhatanqnere avartin khasnen:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamrji nerqevi ughghahayac cheghqe 15 metr e: Shinararuthyunn avartvel e 2011 th. ogostosin, ayn nuynisk minchev 2017 th. mart amise phak e eghel erthevekuthyan hamar:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yerku ashtarakneri bardzruthyune hasnum e 83 metri, dra yerkaruthyune 378 metr e, yev uni 3,5 m laynuthyamb yerku sharq:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyapok geti kamurje chopanayin kamurj e. Ayn dzgvum e Oyapok geti vrayov՝ irar miacnelu Braziliayi Oyapok qaghaqn u Fransiakan Gvianayi Sevnth-Zhorzh de l'Oyapoky.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisovi vcharov taqsinern arag yev harmaravet mijotsner en motaka vayrer aycelelu hamar, inchpes orinak՝ Paro (Nu 150) yev Punakha (Nu 200):
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shat teghanqner spasarkvum en phoqr chaponakan merdzaphnya avtobusnerov, voronq harmaravet en u dimackun:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qani vor mijshrjanayin avtobusnere hachakh bazmamard en, khorhurd e trvum tomse gnel nakhapes՝ mi qani or arraj.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avtobusnern amboghj orva enthatsqum meknum en mijshrjanayin avtokayaranic (geti yerkaynqov), chnayats arevelq u Jaqar/Bumthang gnacoghnere meknum en 06:30 - 07:30 mijakayqum։
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1966 thvakanic sksats Sundarbannere eghel en vayri bnuthyan argelavayrer, yev motavor hashvarknerov taratsqum kan 400 bengalyan thagavorakan vagr yev mot 30,000 pisakavor yeghjeru:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundarbanneri taratsqn endgrkum e 3 850 qarr. km, voric mot mek yerrorde tsatskvats e jrayin/chahchayin hatvatsnerov:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakayn antarrnere sosk mangrenu chahichner chen. dranq nerarrum en zoravor junglineri verjin mnatsuknere, voronq zhamanakin tsatskum ein Ganjethiq harthavayre:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundarbannere hrrchkakvel en YUNESKO-i hamashkharhayin zharranguthyan vayr: Hndkakan taratsqi nersum arrka antarrayin mase kochvum e Sundarbanneri Azgayin park:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundarbannere hamarvum en mangrenineri ashkharhi amenamets aphamerdz gotin, vore dzgvum e 80 km (50 mghon)` aphits hatelov Bangladeshi yev Hndkastani nerqin shrjannere:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa ayn vayrn e, vore britanaci gaghuthararnere ditarkum ein irentse, usti, yethe phntrum eq apacuyc ays teghanqi gaghuthayin ancyali masin, sa lav taratsq e skselu hamar:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honkong kghzu qaghaqashinuthyan himnakan mase verakangnvogh hoghataratsqnerum՝ hyusiayin aphi yerkaynqov, khit bnakecvats e։
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honkongi amenalav tesarannere tesnelu hamar՝ durs ekeq kghzuc yev sharzhveq depi hakarrak koghm՝ Kovlun jrvezh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shinuthyunneri shqerthe, vore dzevavorum e Hong Kongi yerknakamare, nmanetsnum en shoghshoghun gtsapatkeri, vore nkateli e darrnum Viktoria navahangsti jreri arrkayuthyan shnorhiv:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayev shahavet karogh e linel Wild Card gnele, vore mutqi hnaravoruthyun e talis Haravayin Afrikayi tarber parker kam amboghj Haravayin Afrikayi Azgayin parker:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inchpes Haravayin Afrikayi azgayin bolor zbosaygineri paragayum, gortsum en pahpanuthyan yev mutqi orakan vcharner:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayn Haravayin Afrikayi glkhavor tesarzhan vayreric mekn e yev hamarvum e Haravayin Afrikayi azgayin parkeri (SANParks) droshakire:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aygin endgrkum e 19,500 qarrakusi kilometr taratsq yev bazhanvats e 14 tarber ekogotineri, voroncic yuraqanchyurn ajaktsum e vayri bnuthyan tarber chyugheri:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kryugeri azgayin argeloce (KAA) enkats e Haravayin Afrikayi hyusis-arevelqum yev taratsvum e arevelqum՝ Mozambiki sahmani yerkaynqov, hyusisum՝ Zimbabven, isk haravayin sahmane Kokordilosi getn e:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qaghaqe ktruk hakadruthyan mej e gtnvum yerkri myus qaghaqneri het, vorovhetev ayn aveli shat arabakan, qan afrikakan shunch uni.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Henri Lyuisi glkhavor kangarrneric mekn er PBS-i «Afrikyan ashkharhi hrashaliqnere» hatuk thogharkman enthatsqum:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990-in ayn avelacvec hamashkharhayin zharranguthyan vtangvats vayreri tsutsakin՝ yelnelov anapati avazneri vtangi hangamanqic:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aysor Timbuktun aghqat qaghaq e, chnayats ir heghinakuthyunn ayn gravich e dardznum zbosashrjikneri hamar, uni odanavakayan:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iren veraberogh anmatcheliuthyan hamadrmamb «Timbuktu»-n ogtagortsvel er vorpes phokhaberuthyun՝ ekzotik, herravor yerkrneri hamar:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomayi shurj hasnelu hamar karogh eq ogtagortsel boda-bodan (motociklet taqsi). Karch zbosanqi hamar sovorakan (teghakan) gine ~500 kongoakan frank e.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qaghaqe nayev skzbnaket e Nyiragongoyi hrabukhe magltselu hamar՝ Afrikayum hetapndelov vorosh amenaezhan lerrnayin gorilanerin:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minchderr Goman khelamtoren anvtang e, Gomayic durs katarvogh cankacats ayceluthyun petq e usumnasirvi՝ haskanalu hamar rrazmakan gortsoghuthyunneri vichake, vore sharunakvum e Hyusisayin Kivu gavarrum.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 th. Nyiragongo hrabukhi lavan vochnchacrec Goman՝ tsatskelov qaghaqi phoghocneri metsamasnuthyune, hatkapes՝ qaghaqi kentrone:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzhvar che Madinayum gtnel vayrer, vortegh vacharrum en Marokkoyi aynpisi avandakan irer, inchpes, orinak, thazhin utestn e, kave amaneghen, kashve irer, nargilener yev kakhazarderi hskayakan tesakani, sakayn ays amene zbosashrjikneri hamar e:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasablankan gnumner katarelu tesankyunic voghj Marokkoyi amenaqich hetaqrqruthyun nerkayacnogh vayreric e:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marokkoyi sulthane verakarrucec qaghaqe vorpes Daru l-Badya, isk ispanaci arrevtrakannere, ovqer ayntegh arrevti bazaner ein himnum, dran Kasablanka anune tvecin:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugalacinere vochnchatsrin yev verakarrucecin ayn Kaza Branka anvamb, vorpeszi 1755 th. yerkrasharzhic heto endamene lqen ayn:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhamanakakic Kasablanka qaghaqe himnadrvel e berberci dzknorsneri koghmic m.th.a. 10-rd darum, isk phyunikacinere, hrromeacinere yev merenidnern ayn ogtagortsel en vorpes Anfa kochvogh rrazmavarakan navahangist:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yegheq vchrrakan tghamardkanc merzhelu harcum yev mi՛ vakheceq dzer kartsiqe pndeluc (kap chuni՝ mshakuthayin taradzaynuthyun e da, the voch, yegha՞v):
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanayq petq e gitakcen, vor mshakuthayin tarberuthyunneri ardyunqe karogh e linel ayn, inch irenq votndzguthyun khamarevn, yev ansovor ban che, yerb qez hetevum en, dzerrqits qashum yev ayln:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayev matani kreln e ogtakar (ughghaki voch aynpisin, vore chaphazants thankarzheq e:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanayq՝ khorhurd e trvum, vor cankacats champhordogh kin asi, vor amusnacats e՝ ankakh phastaci entanekan kargavichakits:
+</t>
+  </si>
+  <si>
+    <t>Hyusisum taratsashrjane sahmanakcum e Sahelin, isk haravum yev arevmutqum՝ Atlantyan ovkianosin:</t>
+  </si>
+  <si>
+    <t>Yevropakan azdecuthyune yev gaghuthacumn sksvec 15-rd darum, yerb portugalaci yerkrakhuyz Vasko da Gaman gtav Yevropayic Hndkastan tanogh tsovayin ughin:</t>
+  </si>
+  <si>
+    <t>Arabnere nuynpes Islam en berel ays yerkrner yev ayn yerkar chanaparh e antsel Komoryan kghzinerum u Mayottayum:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aveli phoqr kghzineri mets masn ankakh petuthyunner en kam kcvats en Fransiayin yev haytni en vorpes shqegh hangstyan loghapher:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagaskary, ankhos, amenametsn e, yev vayri kendanakan ashkharhi arrumov՝ mi yuratesak mayrcamaq:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arevelaafrikyan kghzinere Hndkakan ovkianosum en՝ Afrikayi arevelyan aphits herru:
+</t>
+  </si>
+  <si>
+    <t>Hamematelu hamar bnakchuthyune, vore zarmacnum e shaterin. kan shat afrikyan amerikaciner, voronq aprum yen AMN-um, qan Kanadayi qaghaqaciner.</t>
+  </si>
+  <si>
+    <t>Aveli hyusis enkats mets taratsqnere nosr en bnaketsvats, isk voroshnere grethe anbnak anapatner en:</t>
+  </si>
+  <si>
+    <t>Ays amene yev vorosh ayl baner endgtsum en Ontarion vorpes ayn, inch otarneri koghmic hamarvum e orinakeli kanadakan qaghaq.</t>
+  </si>
+  <si>
+    <t>Haraviс ayn koghm Niagarayi jrvezhnern e, yev hyusisum e gtnvum Muskokayi yev dran sharunakogh taratsqneri kusakan bnakan gegheckuthyune:</t>
+  </si>
+  <si>
+    <t>Ottavan Kanadayi hmayich, yerklezu mayraqaghaqn e yev zardarvac e arvesti patkerasrahnerov u thangarannerov, voronq i cuyc en dnum Kanadayi ancyaln u nerkan:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blogneri normal ogtagortsume «karogh e uzheghacnel usanoghnerin՝ darrnalu aveli verlutsakan yev qnnadat. aveli gortsun kerpov ardzaganqelov hamacanci nyutherin՝ usanoghnere karogh en urishneri gravorneri hamateqstum sahmanel irenc dirqere, inchpes nayev voroshaki khndirneri vra` irenc isk herrankarnern urvagtselu npatakov» (Orraveq, 2002 th.):
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blogov zbaghvele gortsiq e, vore drdum e hamagortsakcuthyan yev khrakhusum e usanoghnerin endlaynel usucumn avandakan dprocakan orva sahmanneric durs:
 </t>
   </si>
 </sst>
@@ -6688,8 +6688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="B195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6711,7 +6711,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6727,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6735,7 +6735,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6743,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6751,7 +6751,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6759,7 +6759,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1338</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6767,7 +6767,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1339</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -6775,7 +6775,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1340</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6783,7 +6783,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1341</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -6791,7 +6791,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1342</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6799,7 +6799,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1343</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6807,7 +6807,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1344</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6815,7 +6815,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1345</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6823,7 +6823,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1346</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6831,7 +6831,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1347</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1348</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6847,7 +6847,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1349</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6855,7 +6855,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1350</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6863,7 +6863,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1351</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -6871,7 +6871,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1352</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1353</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6887,7 +6887,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1354</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6895,7 +6895,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1355</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6903,7 +6903,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1356</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6911,7 +6911,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1357</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6919,7 +6919,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1358</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1359</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -6935,7 +6935,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1360</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1361</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6951,7 +6951,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1362</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6959,7 +6959,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1363</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1364</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6975,7 +6975,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1365</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6983,7 +6983,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1366</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6991,7 +6991,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1367</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1368</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7007,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7015,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1370</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7023,7 +7023,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7031,7 +7031,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1372</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7039,7 +7039,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1373</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7047,7 +7047,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1374</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1375</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7063,7 +7063,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1376</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1377</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7079,7 +7079,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1378</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1379</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7095,7 +7095,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7103,7 +7103,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1380</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7111,7 +7111,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1381</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1382</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7127,7 +7127,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1383</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1384</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7143,7 +7143,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7151,7 +7151,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1386</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1387</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1388</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1389</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1390</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7191,7 +7191,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1391</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1392</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1393</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7215,7 +7215,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1394</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7223,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1395</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7231,7 +7231,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1396</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -7247,7 +7247,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1397</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1398</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7263,7 +7263,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1399</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7271,7 +7271,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1400</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7279,7 +7279,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1402</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1403</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7303,7 +7303,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1404</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1405</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7319,7 +7319,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1406</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1407</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7335,7 +7335,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1408</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7343,7 +7343,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1409</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7351,7 +7351,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1410</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1411</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7367,7 +7367,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1412</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7375,7 +7375,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1413</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7383,7 +7383,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1414</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1415</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1416</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1417</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1418</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7423,7 +7423,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1419</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1420</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7439,7 +7439,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1421</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7447,7 +7447,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1422</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7455,7 +7455,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1423</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7463,7 +7463,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1424</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1425</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1426</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7487,7 +7487,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1427</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7495,7 +7495,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1428</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7503,7 +7503,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1429</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7511,7 +7511,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1430</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7519,7 +7519,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1431</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7527,7 +7527,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1432</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7535,7 +7535,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1433</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7543,7 +7543,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1434</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7551,7 +7551,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1435</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7559,7 +7559,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1436</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7567,7 +7567,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1571</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1437</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1438</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7591,7 +7591,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1439</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7599,7 +7599,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1440</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1441</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1442</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7623,7 +7623,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1443</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7631,7 +7631,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1444</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7639,7 +7639,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1445</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7647,7 +7647,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1446</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7655,7 +7655,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1447</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7663,7 +7663,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1569</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1570</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7679,7 +7679,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2017</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7687,7 +7687,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2018</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7695,7 +7695,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2019</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7703,7 +7703,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2020</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7711,7 +7711,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2021</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7719,7 +7719,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2022</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2023</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7735,7 +7735,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2024</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7743,7 +7743,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1044</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7751,7 +7751,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1448</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1572</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7767,7 +7767,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1573</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7775,7 +7775,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1449</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7783,7 +7783,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1103</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1104</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -7799,7 +7799,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1450</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1037</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7815,7 +7815,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1105</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7823,7 +7823,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1106</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -7831,7 +7831,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1107</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1045</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1574</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7855,7 +7855,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1575</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7863,7 +7863,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1576</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7871,7 +7871,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1577</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7879,7 +7879,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1108</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7887,7 +7887,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1109</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7895,7 +7895,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1578</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7903,7 +7903,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1451</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1046</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7919,7 +7919,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1579</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -7927,7 +7927,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1110</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7935,7 +7935,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1047</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7943,7 +7943,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1580</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1581</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1452</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7967,7 +7967,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1453</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1454</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1048</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1111</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7999,7 +7999,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8007,7 +8007,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1113</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8015,7 +8015,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1582</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8023,7 +8023,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1019</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8031,7 +8031,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1583</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8039,7 +8039,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1049</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8047,7 +8047,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1584</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1114</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8063,7 +8063,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1115</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8071,7 +8071,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1585</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8079,7 +8079,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1586</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1050</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8095,7 +8095,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1051</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8103,7 +8103,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1587</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1588</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8119,7 +8119,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8127,7 +8127,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1589</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1590</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8143,7 +8143,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1117</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8151,7 +8151,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1591</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8159,7 +8159,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1592</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8167,7 +8167,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1593</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1594</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -8183,7 +8183,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1595</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8191,7 +8191,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1455</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1052</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8207,7 +8207,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1118</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8215,7 +8215,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8223,7 +8223,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1456</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1053</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -8239,7 +8239,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1457</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8247,7 +8247,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1596</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8255,7 +8255,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1119</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1597</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8271,7 +8271,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1120</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8279,7 +8279,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1598</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -8287,7 +8287,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1599</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8295,7 +8295,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1121</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8303,7 +8303,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1600</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8311,7 +8311,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1458</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8319,7 +8319,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1601</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8327,7 +8327,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1459</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8335,7 +8335,7 @@
         <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1460</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8343,7 +8343,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1602</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8351,7 +8351,7 @@
         <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1603</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1604</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8367,7 +8367,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8375,7 +8375,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1605</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8383,7 +8383,7 @@
         <v>211</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1122</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>212</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1606</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8399,7 +8399,7 @@
         <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8407,7 +8407,7 @@
         <v>214</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1607</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8415,7 +8415,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1461</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8423,7 +8423,7 @@
         <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1462</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8431,7 +8431,7 @@
         <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1608</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8439,7 +8439,7 @@
         <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1124</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8447,7 +8447,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1609</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8455,7 +8455,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1610</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1125</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8471,7 +8471,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1611</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1612</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8487,7 +8487,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1613</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8495,7 +8495,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1614</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8503,7 +8503,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1126</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8511,7 +8511,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1615</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8519,7 +8519,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1127</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1128</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8535,7 +8535,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1616</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8543,7 +8543,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1617</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8551,7 +8551,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1463</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8559,7 +8559,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1129</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8567,7 +8567,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1618</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1130</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8583,7 +8583,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1619</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8591,7 +8591,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1131</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -8607,7 +8607,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1132</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -8615,7 +8615,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1620</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8623,7 +8623,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1621</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8639,7 +8639,7 @@
         <v>245</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -8647,7 +8647,7 @@
         <v>246</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1622</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8655,7 +8655,7 @@
         <v>247</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1623</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8663,7 +8663,7 @@
         <v>248</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1133</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
         <v>249</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8679,7 +8679,7 @@
         <v>250</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1464</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8687,7 +8687,7 @@
         <v>251</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1624</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8695,7 +8695,7 @@
         <v>252</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1625</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8703,7 +8703,7 @@
         <v>253</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1134</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>254</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8719,7 +8719,7 @@
         <v>255</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1626</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8727,7 +8727,7 @@
         <v>256</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1627</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
         <v>257</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1628</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -8743,7 +8743,7 @@
         <v>258</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8751,7 +8751,7 @@
         <v>259</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1629</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>260</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1136</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8767,7 +8767,7 @@
         <v>261</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1630</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8775,7 +8775,7 @@
         <v>262</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1137</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8783,7 +8783,7 @@
         <v>263</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1631</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8791,7 +8791,7 @@
         <v>264</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1465</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -8799,7 +8799,7 @@
         <v>265</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -8807,7 +8807,7 @@
         <v>266</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1138</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8815,7 +8815,7 @@
         <v>267</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1139</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -8823,7 +8823,7 @@
         <v>268</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1632</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8831,7 +8831,7 @@
         <v>269</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8839,7 +8839,7 @@
         <v>270</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -8847,7 +8847,7 @@
         <v>271</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1633</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -8855,7 +8855,7 @@
         <v>272</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1634</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -8863,7 +8863,7 @@
         <v>273</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1141</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
         <v>274</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1635</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8879,7 +8879,7 @@
         <v>275</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1466</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8887,7 +8887,7 @@
         <v>276</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1636</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8895,7 +8895,7 @@
         <v>277</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1142</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8903,7 +8903,7 @@
         <v>278</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1143</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8911,7 +8911,7 @@
         <v>279</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1467</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8919,7 +8919,7 @@
         <v>280</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1637</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -8927,7 +8927,7 @@
         <v>281</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1638</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -8935,7 +8935,7 @@
         <v>282</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8943,7 +8943,7 @@
         <v>283</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1468</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8951,7 +8951,7 @@
         <v>284</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -8959,7 +8959,7 @@
         <v>285</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1639</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -8967,7 +8967,7 @@
         <v>286</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8975,7 +8975,7 @@
         <v>287</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1640</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8983,7 +8983,7 @@
         <v>288</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1641</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8991,7 +8991,7 @@
         <v>289</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1146</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
         <v>290</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1147</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9007,7 +9007,7 @@
         <v>291</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1148</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9015,7 +9015,7 @@
         <v>292</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1149</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9023,7 +9023,7 @@
         <v>293</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9031,7 +9031,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1642</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9039,7 +9039,7 @@
         <v>295</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1643</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9047,7 +9047,7 @@
         <v>296</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1151</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9055,7 +9055,7 @@
         <v>297</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1469</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9063,7 +9063,7 @@
         <v>298</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1152</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9071,7 +9071,7 @@
         <v>299</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1470</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9079,7 +9079,7 @@
         <v>300</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9087,7 +9087,7 @@
         <v>301</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
         <v>302</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1644</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9103,7 +9103,7 @@
         <v>303</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1645</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9111,7 +9111,7 @@
         <v>304</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1646</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9119,7 +9119,7 @@
         <v>305</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1647</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9127,7 +9127,7 @@
         <v>306</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1648</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9135,7 +9135,7 @@
         <v>307</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1649</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9143,7 +9143,7 @@
         <v>308</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1471</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9151,7 +9151,7 @@
         <v>309</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -9159,7 +9159,7 @@
         <v>310</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1650</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9167,7 +9167,7 @@
         <v>311</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9175,7 +9175,7 @@
         <v>312</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -9183,7 +9183,7 @@
         <v>313</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1651</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9191,7 +9191,7 @@
         <v>314</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1472</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9199,7 +9199,7 @@
         <v>315</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1652</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9207,7 +9207,7 @@
         <v>316</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9215,7 +9215,7 @@
         <v>317</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9223,7 +9223,7 @@
         <v>318</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9231,7 +9231,7 @@
         <v>319</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1653</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
         <v>320</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1654</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9247,7 +9247,7 @@
         <v>321</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1473</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9255,7 +9255,7 @@
         <v>322</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1655</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -9263,7 +9263,7 @@
         <v>323</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1656</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -9271,7 +9271,7 @@
         <v>324</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1474</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9279,7 +9279,7 @@
         <v>325</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1657</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
         <v>326</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9295,7 +9295,7 @@
         <v>327</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1658</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -9303,7 +9303,7 @@
         <v>328</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9311,7 +9311,7 @@
         <v>329</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1659</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9319,7 +9319,7 @@
         <v>330</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1159</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9327,7 +9327,7 @@
         <v>331</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1160</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9335,7 +9335,7 @@
         <v>332</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1660</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -9343,7 +9343,7 @@
         <v>333</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1475</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -9351,7 +9351,7 @@
         <v>334</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1161</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -9359,7 +9359,7 @@
         <v>335</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9367,7 +9367,7 @@
         <v>336</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9383,7 +9383,7 @@
         <v>339</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1163</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9391,7 +9391,7 @@
         <v>340</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1661</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -9399,7 +9399,7 @@
         <v>341</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1164</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9407,7 +9407,7 @@
         <v>342</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1476</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9415,7 +9415,7 @@
         <v>343</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1662</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -9423,7 +9423,7 @@
         <v>344</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1165</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9431,7 +9431,7 @@
         <v>345</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1166</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9439,7 +9439,7 @@
         <v>346</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1167</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -9447,7 +9447,7 @@
         <v>347</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9455,7 +9455,7 @@
         <v>348</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9463,7 +9463,7 @@
         <v>349</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1168</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9471,7 +9471,7 @@
         <v>350</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1169</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9479,7 +9479,7 @@
         <v>351</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1170</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9487,7 +9487,7 @@
         <v>352</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1171</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9495,7 +9495,7 @@
         <v>353</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1663</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -9503,7 +9503,7 @@
         <v>354</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9511,7 +9511,7 @@
         <v>355</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1477</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9519,7 +9519,7 @@
         <v>356</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1664</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9527,7 +9527,7 @@
         <v>357</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1665</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9535,7 +9535,7 @@
         <v>358</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1172</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9543,7 +9543,7 @@
         <v>359</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1173</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9551,7 +9551,7 @@
         <v>360</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1174</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9559,7 +9559,7 @@
         <v>361</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1666</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9567,7 +9567,7 @@
         <v>362</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1667</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -9575,7 +9575,7 @@
         <v>363</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1668</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9583,7 +9583,7 @@
         <v>364</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1669</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9591,7 +9591,7 @@
         <v>365</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1670</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9599,7 +9599,7 @@
         <v>366</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1671</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9607,7 +9607,7 @@
         <v>367</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1478</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
         <v>368</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -9623,7 +9623,7 @@
         <v>369</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1176</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
         <v>370</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1672</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9639,7 +9639,7 @@
         <v>371</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1673</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9647,7 +9647,7 @@
         <v>372</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1177</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9655,7 +9655,7 @@
         <v>373</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1674</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9663,7 +9663,7 @@
         <v>374</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1178</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9671,7 +9671,7 @@
         <v>375</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1675</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9679,7 +9679,7 @@
         <v>376</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1676</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9687,7 +9687,7 @@
         <v>377</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1179</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9695,7 +9695,7 @@
         <v>378</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1677</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9703,7 +9703,7 @@
         <v>379</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1180</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9711,7 +9711,7 @@
         <v>380</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1479</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9719,7 +9719,7 @@
         <v>381</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1678</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9727,7 +9727,7 @@
         <v>382</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1679</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9735,7 +9735,7 @@
         <v>383</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1181</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9743,7 +9743,7 @@
         <v>384</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1182</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9751,7 +9751,7 @@
         <v>385</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1183</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9759,7 +9759,7 @@
         <v>386</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1184</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9767,7 +9767,7 @@
         <v>387</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1680</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -9775,7 +9775,7 @@
         <v>388</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1681</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9783,7 +9783,7 @@
         <v>389</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1480</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9791,7 +9791,7 @@
         <v>390</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1481</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9799,7 +9799,7 @@
         <v>391</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1682</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9807,7 +9807,7 @@
         <v>392</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1683</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>393</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1684</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9823,7 +9823,7 @@
         <v>394</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1685</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9831,7 +9831,7 @@
         <v>395</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1686</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
         <v>396</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1687</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9847,7 +9847,7 @@
         <v>397</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1688</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9855,7 +9855,7 @@
         <v>398</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1689</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9863,7 +9863,7 @@
         <v>399</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1482</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9871,7 +9871,7 @@
         <v>400</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1690</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9879,7 +9879,7 @@
         <v>401</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1691</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9887,7 +9887,7 @@
         <v>402</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1692</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9895,7 +9895,7 @@
         <v>403</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1693</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9903,7 +9903,7 @@
         <v>404</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1185</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9911,7 +9911,7 @@
         <v>405</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1186</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9919,7 +9919,7 @@
         <v>406</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1694</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9927,7 +9927,7 @@
         <v>407</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9935,7 +9935,7 @@
         <v>408</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1483</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9943,7 +9943,7 @@
         <v>409</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1187</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9951,7 +9951,7 @@
         <v>410</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1695</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
         <v>411</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1696</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9967,7 +9967,7 @@
         <v>412</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1697</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -9975,7 +9975,7 @@
         <v>413</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1698</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9983,7 +9983,7 @@
         <v>414</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1188</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -9991,7 +9991,7 @@
         <v>415</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1699</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -9999,7 +9999,7 @@
         <v>416</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1484</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10007,7 +10007,7 @@
         <v>417</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1485</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10015,7 +10015,7 @@
         <v>418</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1486</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10023,7 +10023,7 @@
         <v>419</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1487</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10031,7 +10031,7 @@
         <v>420</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1700</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -10039,7 +10039,7 @@
         <v>421</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10047,7 +10047,7 @@
         <v>422</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1701</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10055,7 +10055,7 @@
         <v>423</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1189</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10063,7 +10063,7 @@
         <v>424</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1190</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10071,7 +10071,7 @@
         <v>425</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1702</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10079,7 +10079,7 @@
         <v>426</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1488</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10087,7 +10087,7 @@
         <v>427</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1489</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10095,7 +10095,7 @@
         <v>428</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1703</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10103,7 +10103,7 @@
         <v>429</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1490</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -10111,7 +10111,7 @@
         <v>430</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1704</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10119,7 +10119,7 @@
         <v>431</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1491</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10127,7 +10127,7 @@
         <v>432</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1492</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10135,7 +10135,7 @@
         <v>433</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1191</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10143,7 +10143,7 @@
         <v>434</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1705</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10151,7 +10151,7 @@
         <v>435</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1706</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10159,7 +10159,7 @@
         <v>436</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1707</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10167,7 +10167,7 @@
         <v>437</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1192</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10175,7 +10175,7 @@
         <v>438</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1193</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10183,7 +10183,7 @@
         <v>439</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1708</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10191,7 +10191,7 @@
         <v>440</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1194</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
         <v>441</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1709</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10207,7 +10207,7 @@
         <v>442</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1710</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10215,7 +10215,7 @@
         <v>443</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1711</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10223,7 +10223,7 @@
         <v>444</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10231,7 +10231,7 @@
         <v>445</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1195</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10239,7 +10239,7 @@
         <v>446</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1713</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10247,7 +10247,7 @@
         <v>447</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1714</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10255,7 +10255,7 @@
         <v>448</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1715</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10263,7 +10263,7 @@
         <v>449</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1716</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10271,7 +10271,7 @@
         <v>450</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1196</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10279,7 +10279,7 @@
         <v>451</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>1717</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>452</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>1493</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10295,7 +10295,7 @@
         <v>453</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1197</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10303,7 +10303,7 @@
         <v>454</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1718</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10311,7 +10311,7 @@
         <v>455</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
         <v>456</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1198</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10327,7 +10327,7 @@
         <v>457</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1199</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10335,7 +10335,7 @@
         <v>458</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1200</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10343,7 +10343,7 @@
         <v>459</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1201</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10351,7 +10351,7 @@
         <v>460</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1720</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -10359,7 +10359,7 @@
         <v>461</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1202</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10367,7 +10367,7 @@
         <v>462</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1721</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10375,7 +10375,7 @@
         <v>463</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1203</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>464</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1204</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10391,7 +10391,7 @@
         <v>465</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1722</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
         <v>466</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1723</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
         <v>467</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>1724</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10415,7 +10415,7 @@
         <v>468</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>1725</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10423,7 +10423,7 @@
         <v>469</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1726</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10431,7 +10431,7 @@
         <v>470</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>1205</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10439,7 +10439,7 @@
         <v>471</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1727</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10447,7 +10447,7 @@
         <v>472</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1206</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10455,7 +10455,7 @@
         <v>473</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1728</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10463,7 +10463,7 @@
         <v>474</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1729</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10471,7 +10471,7 @@
         <v>475</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1730</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10479,7 +10479,7 @@
         <v>476</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1731</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10487,7 +10487,7 @@
         <v>477</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1207</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10495,7 +10495,7 @@
         <v>478</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1208</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
         <v>479</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1732</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10511,7 +10511,7 @@
         <v>480</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1209</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10519,7 +10519,7 @@
         <v>481</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1210</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10527,7 +10527,7 @@
         <v>482</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1211</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10535,7 +10535,7 @@
         <v>483</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1733</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10543,7 +10543,7 @@
         <v>484</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1734</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -10551,7 +10551,7 @@
         <v>485</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1212</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
         <v>486</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1213</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
         <v>487</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1494</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10575,7 +10575,7 @@
         <v>488</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1735</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10583,7 +10583,7 @@
         <v>489</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1736</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10591,7 +10591,7 @@
         <v>490</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1737</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10599,7 +10599,7 @@
         <v>491</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>1214</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
         <v>492</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1738</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10615,7 +10615,7 @@
         <v>493</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10623,7 +10623,7 @@
         <v>494</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1739</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10631,7 +10631,7 @@
         <v>495</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1740</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -10639,7 +10639,7 @@
         <v>496</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>1741</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10647,7 +10647,7 @@
         <v>497</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>1742</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>498</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1215</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10663,7 +10663,7 @@
         <v>499</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1216</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10671,7 +10671,7 @@
         <v>500</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10679,7 +10679,7 @@
         <v>501</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1217</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10687,7 +10687,7 @@
         <v>502</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1743</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10695,7 +10695,7 @@
         <v>503</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10703,7 +10703,7 @@
         <v>504</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1495</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -10711,7 +10711,7 @@
         <v>505</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1218</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10719,7 +10719,7 @@
         <v>506</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1744</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10727,7 +10727,7 @@
         <v>507</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1745</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10735,7 +10735,7 @@
         <v>508</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>1496</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10743,7 +10743,7 @@
         <v>509</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1746</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
         <v>510</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1219</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10759,7 +10759,7 @@
         <v>511</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1497</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10767,7 +10767,7 @@
         <v>512</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1498</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10775,7 +10775,7 @@
         <v>513</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1499</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10783,7 +10783,7 @@
         <v>514</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1500</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -10791,7 +10791,7 @@
         <v>515</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1747</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <v>516</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1748</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10807,7 +10807,7 @@
         <v>517</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1749</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
         <v>518</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>1750</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -10823,7 +10823,7 @@
         <v>519</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10831,7 +10831,7 @@
         <v>520</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
         <v>521</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1751</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10847,7 +10847,7 @@
         <v>522</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1752</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10855,7 +10855,7 @@
         <v>523</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1753</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
         <v>524</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1754</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10871,7 +10871,7 @@
         <v>525</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>1755</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10879,7 +10879,7 @@
         <v>526</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1220</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10887,7 +10887,7 @@
         <v>527</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1756</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10895,7 +10895,7 @@
         <v>528</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1757</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
         <v>529</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1758</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10911,7 +10911,7 @@
         <v>530</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1501</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
         <v>531</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1502</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10927,7 +10927,7 @@
         <v>532</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1221</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10935,7 +10935,7 @@
         <v>533</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1503</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10943,7 +10943,7 @@
         <v>534</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1759</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -10951,7 +10951,7 @@
         <v>535</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1760</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10959,7 +10959,7 @@
         <v>536</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1504</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10967,7 +10967,7 @@
         <v>537</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1505</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -10975,7 +10975,7 @@
         <v>538</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1222</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10983,7 +10983,7 @@
         <v>539</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1761</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10991,7 +10991,7 @@
         <v>540</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1762</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -10999,7 +10999,7 @@
         <v>541</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1223</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11007,7 +11007,7 @@
         <v>542</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1763</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11015,7 +11015,7 @@
         <v>543</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1764</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11023,7 +11023,7 @@
         <v>544</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1765</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11031,7 +11031,7 @@
         <v>545</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1766</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -11039,7 +11039,7 @@
         <v>546</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1767</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11047,7 +11047,7 @@
         <v>547</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1768</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11055,7 +11055,7 @@
         <v>548</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1769</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11063,7 +11063,7 @@
         <v>549</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1770</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11071,7 +11071,7 @@
         <v>550</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1224</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11079,7 +11079,7 @@
         <v>551</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>1771</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11087,7 +11087,7 @@
         <v>552</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1772</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11095,7 +11095,7 @@
         <v>553</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1773</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -11103,7 +11103,7 @@
         <v>554</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1774</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
         <v>555</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1225</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
         <v>556</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1226</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11127,7 +11127,7 @@
         <v>557</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1775</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11135,7 +11135,7 @@
         <v>558</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11143,7 +11143,7 @@
         <v>559</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>1776</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11151,7 +11151,7 @@
         <v>560</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1777</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11159,7 +11159,7 @@
         <v>561</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1778</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -11167,7 +11167,7 @@
         <v>562</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1779</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11175,7 +11175,7 @@
         <v>563</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1780</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11183,7 +11183,7 @@
         <v>564</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>1781</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11191,7 +11191,7 @@
         <v>565</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1782</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
         <v>566</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1506</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -11207,7 +11207,7 @@
         <v>567</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1783</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11215,7 +11215,7 @@
         <v>568</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1227</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11223,7 +11223,7 @@
         <v>569</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1507</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11231,7 +11231,7 @@
         <v>570</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1784</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11239,7 +11239,7 @@
         <v>571</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1785</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11247,7 +11247,7 @@
         <v>572</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1786</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -11255,7 +11255,7 @@
         <v>573</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1228</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11263,7 +11263,7 @@
         <v>574</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1787</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11271,7 +11271,7 @@
         <v>575</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1788</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11279,7 +11279,7 @@
         <v>576</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1789</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11287,7 +11287,7 @@
         <v>577</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>1790</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11295,7 +11295,7 @@
         <v>578</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>1791</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11303,7 +11303,7 @@
         <v>579</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11311,7 +11311,7 @@
         <v>580</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>1792</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -11319,7 +11319,7 @@
         <v>581</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>1793</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11327,7 +11327,7 @@
         <v>582</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>1508</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -11335,7 +11335,7 @@
         <v>583</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>1229</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -11343,7 +11343,7 @@
         <v>584</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>1794</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
         <v>587</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>1795</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11367,7 +11367,7 @@
         <v>588</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>1796</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11375,7 +11375,7 @@
         <v>589</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>1509</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11383,7 +11383,7 @@
         <v>590</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>1797</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11391,7 +11391,7 @@
         <v>591</v>
       </c>
       <c r="B587" s="5" t="s">
-        <v>1798</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11399,7 +11399,7 @@
         <v>592</v>
       </c>
       <c r="B588" s="5" t="s">
-        <v>1799</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11407,7 +11407,7 @@
         <v>593</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>1800</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11415,7 +11415,7 @@
         <v>594</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1801</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11423,7 +11423,7 @@
         <v>595</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1802</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11431,7 +11431,7 @@
         <v>596</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1803</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11439,7 +11439,7 @@
         <v>597</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1804</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11447,7 +11447,7 @@
         <v>598</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1805</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11455,7 +11455,7 @@
         <v>599</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1806</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
         <v>600</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1230</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>601</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1807</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11479,7 +11479,7 @@
         <v>602</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1808</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>603</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1809</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11495,7 +11495,7 @@
         <v>604</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1810</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11503,7 +11503,7 @@
         <v>605</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1811</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11511,7 +11511,7 @@
         <v>606</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1231</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -11519,7 +11519,7 @@
         <v>607</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1812</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11527,7 +11527,7 @@
         <v>608</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1232</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11535,7 +11535,7 @@
         <v>609</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11543,7 +11543,7 @@
         <v>610</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1813</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11551,7 +11551,7 @@
         <v>611</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1814</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11559,7 +11559,7 @@
         <v>612</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>1815</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11567,7 +11567,7 @@
         <v>613</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1816</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11575,7 +11575,7 @@
         <v>614</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1817</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11583,7 +11583,7 @@
         <v>615</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1818</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11591,7 +11591,7 @@
         <v>616</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1819</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11599,7 +11599,7 @@
         <v>617</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>1820</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11607,7 +11607,7 @@
         <v>618</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1821</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11615,7 +11615,7 @@
         <v>619</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>1822</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11623,7 +11623,7 @@
         <v>620</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1823</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -11631,7 +11631,7 @@
         <v>621</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1510</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
         <v>622</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>1511</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11647,7 +11647,7 @@
         <v>623</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1824</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11655,7 +11655,7 @@
         <v>624</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1233</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -11663,7 +11663,7 @@
         <v>625</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1825</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11671,7 +11671,7 @@
         <v>626</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1826</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11679,7 +11679,7 @@
         <v>627</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1827</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11687,7 +11687,7 @@
         <v>628</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11695,7 +11695,7 @@
         <v>629</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1234</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11703,7 +11703,7 @@
         <v>630</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1235</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11711,7 +11711,7 @@
         <v>631</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1828</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11719,7 +11719,7 @@
         <v>632</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11727,7 +11727,7 @@
         <v>633</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1512</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11735,7 +11735,7 @@
         <v>634</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>1513</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -11743,7 +11743,7 @@
         <v>635</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>1829</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11751,7 +11751,7 @@
         <v>636</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>1830</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11759,7 +11759,7 @@
         <v>637</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>1514</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -11767,7 +11767,7 @@
         <v>638</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>1515</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="635" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -11775,7 +11775,7 @@
         <v>639</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>1831</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
         <v>640</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>1832</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11791,7 +11791,7 @@
         <v>641</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>1516</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11799,7 +11799,7 @@
         <v>642</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>1833</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>643</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>1834</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11815,7 +11815,7 @@
         <v>644</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1835</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -11823,7 +11823,7 @@
         <v>645</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>1236</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -11831,7 +11831,7 @@
         <v>646</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>1237</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11839,7 +11839,7 @@
         <v>647</v>
       </c>
       <c r="B643" s="5" t="s">
-        <v>1238</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11847,7 +11847,7 @@
         <v>648</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1836</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11855,7 +11855,7 @@
         <v>649</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>1239</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11863,7 +11863,7 @@
         <v>650</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>1837</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11871,7 +11871,7 @@
         <v>651</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>1838</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="648" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11879,7 +11879,7 @@
         <v>652</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>1839</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11887,7 +11887,7 @@
         <v>653</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>1240</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11895,7 +11895,7 @@
         <v>654</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>1840</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11903,7 +11903,7 @@
         <v>655</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>1241</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -11911,7 +11911,7 @@
         <v>656</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>1841</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11919,7 +11919,7 @@
         <v>657</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>1242</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11927,7 +11927,7 @@
         <v>658</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>1243</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11935,7 +11935,7 @@
         <v>659</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>1244</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -11943,7 +11943,7 @@
         <v>660</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="657" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11951,7 +11951,7 @@
         <v>661</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>1842</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11959,7 +11959,7 @@
         <v>662</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>1245</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11967,7 +11967,7 @@
         <v>663</v>
       </c>
       <c r="B659" s="5" t="s">
-        <v>1843</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11975,7 +11975,7 @@
         <v>664</v>
       </c>
       <c r="B660" s="5" t="s">
-        <v>1246</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -11983,7 +11983,7 @@
         <v>665</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>1247</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11991,7 +11991,7 @@
         <v>666</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="663" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
         <v>667</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>1844</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -12007,7 +12007,7 @@
         <v>668</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>1845</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -12015,7 +12015,7 @@
         <v>669</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12023,7 +12023,7 @@
         <v>670</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12031,7 +12031,7 @@
         <v>671</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>1846</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12039,7 +12039,7 @@
         <v>672</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>1847</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12047,7 +12047,7 @@
         <v>673</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>1848</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -12055,7 +12055,7 @@
         <v>674</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>1517</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12063,7 +12063,7 @@
         <v>675</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>1248</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12071,7 +12071,7 @@
         <v>676</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>1849</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="673" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12079,7 +12079,7 @@
         <v>677</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>1850</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12087,7 +12087,7 @@
         <v>678</v>
       </c>
       <c r="B674" s="5" t="s">
-        <v>1249</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12095,7 +12095,7 @@
         <v>679</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12103,7 +12103,7 @@
         <v>680</v>
       </c>
       <c r="B676" s="5" t="s">
-        <v>1518</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -12111,7 +12111,7 @@
         <v>681</v>
       </c>
       <c r="B677" s="5" t="s">
-        <v>1851</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -12119,7 +12119,7 @@
         <v>682</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -12127,7 +12127,7 @@
         <v>683</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1852</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12135,7 +12135,7 @@
         <v>684</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1250</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12143,7 +12143,7 @@
         <v>685</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>1853</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12151,7 +12151,7 @@
         <v>686</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>1854</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12159,7 +12159,7 @@
         <v>687</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>1855</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="684" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12167,7 +12167,7 @@
         <v>688</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>1856</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12175,7 +12175,7 @@
         <v>689</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>1857</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12183,7 +12183,7 @@
         <v>690</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>1251</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12191,7 +12191,7 @@
         <v>691</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12199,7 +12199,7 @@
         <v>692</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>1253</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12207,7 +12207,7 @@
         <v>693</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -12215,7 +12215,7 @@
         <v>694</v>
       </c>
       <c r="B690" s="5" t="s">
-        <v>1519</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -12223,7 +12223,7 @@
         <v>695</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>1520</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12231,7 +12231,7 @@
         <v>696</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>1858</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -12239,7 +12239,7 @@
         <v>697</v>
       </c>
       <c r="B693" s="5" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -12247,7 +12247,7 @@
         <v>698</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1859</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12255,7 +12255,7 @@
         <v>699</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1860</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12263,7 +12263,7 @@
         <v>700</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1254</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12271,7 +12271,7 @@
         <v>701</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>1861</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
         <v>702</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>1862</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12287,7 +12287,7 @@
         <v>703</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>1863</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -12295,7 +12295,7 @@
         <v>704</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>1864</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12303,7 +12303,7 @@
         <v>705</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>1865</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12311,7 +12311,7 @@
         <v>706</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1866</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12319,7 +12319,7 @@
         <v>707</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>1255</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12327,7 +12327,7 @@
         <v>708</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>1867</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12335,7 +12335,7 @@
         <v>709</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>1868</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12343,7 +12343,7 @@
         <v>710</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1256</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12351,7 +12351,7 @@
         <v>711</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>1521</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12359,7 +12359,7 @@
         <v>712</v>
       </c>
       <c r="B708" s="5" t="s">
-        <v>1522</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12367,7 +12367,7 @@
         <v>713</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1257</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12375,7 +12375,7 @@
         <v>714</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1869</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12383,7 +12383,7 @@
         <v>715</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1870</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -12391,7 +12391,7 @@
         <v>716</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>1871</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -12399,7 +12399,7 @@
         <v>717</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1258</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12407,7 +12407,7 @@
         <v>718</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1872</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12415,7 +12415,7 @@
         <v>719</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1873</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12423,7 +12423,7 @@
         <v>720</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1259</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12431,7 +12431,7 @@
         <v>721</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1260</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12439,7 +12439,7 @@
         <v>722</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1523</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12447,7 +12447,7 @@
         <v>723</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1261</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12455,7 +12455,7 @@
         <v>724</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1874</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
@@ -12463,7 +12463,7 @@
         <v>725</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1262</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -12471,7 +12471,7 @@
         <v>726</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1263</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12479,7 +12479,7 @@
         <v>727</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1524</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12487,7 +12487,7 @@
         <v>728</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12495,7 +12495,7 @@
         <v>729</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1875</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12503,7 +12503,7 @@
         <v>730</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1876</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12511,7 +12511,7 @@
         <v>731</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1877</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -12519,7 +12519,7 @@
         <v>732</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1525</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12527,7 +12527,7 @@
         <v>733</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1526</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -12535,7 +12535,7 @@
         <v>734</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1878</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12543,7 +12543,7 @@
         <v>735</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1879</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -12551,7 +12551,7 @@
         <v>736</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1880</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12559,7 +12559,7 @@
         <v>737</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1264</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12567,7 +12567,7 @@
         <v>738</v>
       </c>
       <c r="B734" s="5" t="s">
-        <v>1881</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12575,7 +12575,7 @@
         <v>739</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>1265</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12583,7 +12583,7 @@
         <v>740</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>1882</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12591,7 +12591,7 @@
         <v>741</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1266</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12599,7 +12599,7 @@
         <v>742</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1883</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12607,7 +12607,7 @@
         <v>743</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12615,7 +12615,7 @@
         <v>744</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1884</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12623,7 +12623,7 @@
         <v>745</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1885</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -12631,7 +12631,7 @@
         <v>746</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12639,7 +12639,7 @@
         <v>747</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1886</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12647,7 +12647,7 @@
         <v>748</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1887</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -12655,7 +12655,7 @@
         <v>749</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
@@ -12663,7 +12663,7 @@
         <v>750</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12671,7 +12671,7 @@
         <v>751</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>1527</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12679,7 +12679,7 @@
         <v>752</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>1528</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12687,7 +12687,7 @@
         <v>753</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>1888</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
         <v>754</v>
       </c>
       <c r="B750" s="5" t="s">
-        <v>1889</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
@@ -12703,7 +12703,7 @@
         <v>755</v>
       </c>
       <c r="B751" s="5" t="s">
-        <v>1890</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12711,7 +12711,7 @@
         <v>756</v>
       </c>
       <c r="B752" s="5" t="s">
-        <v>1891</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
         <v>757</v>
       </c>
       <c r="B753" s="5" t="s">
-        <v>1529</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12727,7 +12727,7 @@
         <v>758</v>
       </c>
       <c r="B754" s="5" t="s">
-        <v>1268</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -12735,7 +12735,7 @@
         <v>759</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>1892</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12743,7 +12743,7 @@
         <v>760</v>
       </c>
       <c r="B756" s="5" t="s">
-        <v>1893</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12751,7 +12751,7 @@
         <v>761</v>
       </c>
       <c r="B757" s="5" t="s">
-        <v>1894</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12759,7 +12759,7 @@
         <v>762</v>
       </c>
       <c r="B758" s="5" t="s">
-        <v>1269</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -12767,7 +12767,7 @@
         <v>763</v>
       </c>
       <c r="B759" s="5" t="s">
-        <v>1895</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12775,7 +12775,7 @@
         <v>764</v>
       </c>
       <c r="B760" s="5" t="s">
-        <v>1896</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12783,7 +12783,7 @@
         <v>765</v>
       </c>
       <c r="B761" s="5" t="s">
-        <v>1530</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12791,7 +12791,7 @@
         <v>766</v>
       </c>
       <c r="B762" s="5" t="s">
-        <v>1897</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -12799,7 +12799,7 @@
         <v>767</v>
       </c>
       <c r="B763" s="5" t="s">
-        <v>1531</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12807,7 +12807,7 @@
         <v>768</v>
       </c>
       <c r="B764" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -12815,7 +12815,7 @@
         <v>769</v>
       </c>
       <c r="B765" s="5" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12823,7 +12823,7 @@
         <v>770</v>
       </c>
       <c r="B766" s="5" t="s">
-        <v>1270</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12831,7 +12831,7 @@
         <v>771</v>
       </c>
       <c r="B767" s="5" t="s">
-        <v>1532</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12839,7 +12839,7 @@
         <v>772</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1898</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12847,7 +12847,7 @@
         <v>773</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1899</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12855,7 +12855,7 @@
         <v>774</v>
       </c>
       <c r="B770" s="5" t="s">
-        <v>1900</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12863,7 +12863,7 @@
         <v>775</v>
       </c>
       <c r="B771" s="5" t="s">
-        <v>1271</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -12871,7 +12871,7 @@
         <v>776</v>
       </c>
       <c r="B772" s="5" t="s">
-        <v>1901</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12879,7 +12879,7 @@
         <v>777</v>
       </c>
       <c r="B773" s="5" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12887,7 +12887,7 @@
         <v>778</v>
       </c>
       <c r="B774" s="5" t="s">
-        <v>1902</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="775" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12895,7 +12895,7 @@
         <v>779</v>
       </c>
       <c r="B775" s="5" t="s">
-        <v>1272</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12903,7 +12903,7 @@
         <v>780</v>
       </c>
       <c r="B776" s="5" t="s">
-        <v>1903</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12911,7 +12911,7 @@
         <v>781</v>
       </c>
       <c r="B777" s="5" t="s">
-        <v>1904</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -12919,7 +12919,7 @@
         <v>782</v>
       </c>
       <c r="B778" s="5" t="s">
-        <v>1905</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12927,7 +12927,7 @@
         <v>783</v>
       </c>
       <c r="B779" s="5" t="s">
-        <v>1906</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12935,7 +12935,7 @@
         <v>784</v>
       </c>
       <c r="B780" s="5" t="s">
-        <v>1907</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12943,7 +12943,7 @@
         <v>785</v>
       </c>
       <c r="B781" s="5" t="s">
-        <v>1273</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -12951,7 +12951,7 @@
         <v>786</v>
       </c>
       <c r="B782" s="5" t="s">
-        <v>1533</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12959,7 +12959,7 @@
         <v>787</v>
       </c>
       <c r="B783" s="5" t="s">
-        <v>1908</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -12967,7 +12967,7 @@
         <v>788</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>1909</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="785" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12975,7 +12975,7 @@
         <v>789</v>
       </c>
       <c r="B785" s="5" t="s">
-        <v>1274</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12983,7 +12983,7 @@
         <v>790</v>
       </c>
       <c r="B786" s="5" t="s">
-        <v>1910</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12991,7 +12991,7 @@
         <v>791</v>
       </c>
       <c r="B787" s="5" t="s">
-        <v>1911</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>792</v>
       </c>
       <c r="B788" s="5" t="s">
-        <v>1912</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -13007,7 +13007,7 @@
         <v>793</v>
       </c>
       <c r="B789" s="5" t="s">
-        <v>1913</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13015,7 +13015,7 @@
         <v>794</v>
       </c>
       <c r="B790" s="5" t="s">
-        <v>1275</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13023,7 +13023,7 @@
         <v>795</v>
       </c>
       <c r="B791" s="5" t="s">
-        <v>1914</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13031,7 +13031,7 @@
         <v>796</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13039,7 +13039,7 @@
         <v>797</v>
       </c>
       <c r="B793" s="5" t="s">
-        <v>1915</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -13047,7 +13047,7 @@
         <v>798</v>
       </c>
       <c r="B794" s="5" t="s">
-        <v>1276</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13055,7 +13055,7 @@
         <v>799</v>
       </c>
       <c r="B795" s="5" t="s">
-        <v>1916</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -13063,7 +13063,7 @@
         <v>800</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>1277</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -13071,7 +13071,7 @@
         <v>801</v>
       </c>
       <c r="B797" s="5" t="s">
-        <v>1534</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13079,7 +13079,7 @@
         <v>802</v>
       </c>
       <c r="B798" s="5" t="s">
-        <v>1278</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13087,7 +13087,7 @@
         <v>803</v>
       </c>
       <c r="B799" s="5" t="s">
-        <v>1279</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -13095,7 +13095,7 @@
         <v>804</v>
       </c>
       <c r="B800" s="5" t="s">
-        <v>1917</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13103,7 +13103,7 @@
         <v>805</v>
       </c>
       <c r="B801" s="5" t="s">
-        <v>1918</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13111,7 +13111,7 @@
         <v>806</v>
       </c>
       <c r="B802" s="5" t="s">
-        <v>1919</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -13119,7 +13119,7 @@
         <v>807</v>
       </c>
       <c r="B803" s="5" t="s">
-        <v>1920</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -13127,7 +13127,7 @@
         <v>808</v>
       </c>
       <c r="B804" s="5" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13135,7 +13135,7 @@
         <v>809</v>
       </c>
       <c r="B805" s="5" t="s">
-        <v>1281</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13143,7 +13143,7 @@
         <v>810</v>
       </c>
       <c r="B806" s="5" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13151,7 +13151,7 @@
         <v>811</v>
       </c>
       <c r="B807" s="5" t="s">
-        <v>1921</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13159,7 +13159,7 @@
         <v>812</v>
       </c>
       <c r="B808" s="5" t="s">
-        <v>1922</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13167,7 +13167,7 @@
         <v>813</v>
       </c>
       <c r="B809" s="5" t="s">
-        <v>1923</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13175,7 +13175,7 @@
         <v>814</v>
       </c>
       <c r="B810" s="5" t="s">
-        <v>1924</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13183,7 +13183,7 @@
         <v>815</v>
       </c>
       <c r="B811" s="5" t="s">
-        <v>1925</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13191,7 +13191,7 @@
         <v>816</v>
       </c>
       <c r="B812" s="5" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
         <v>817</v>
       </c>
       <c r="B813" s="5" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13207,7 +13207,7 @@
         <v>818</v>
       </c>
       <c r="B814" s="5" t="s">
-        <v>1284</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13215,7 +13215,7 @@
         <v>819</v>
       </c>
       <c r="B815" s="5" t="s">
-        <v>1285</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13223,7 +13223,7 @@
         <v>820</v>
       </c>
       <c r="B816" s="5" t="s">
-        <v>1535</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -13231,7 +13231,7 @@
         <v>821</v>
       </c>
       <c r="B817" s="5" t="s">
-        <v>1926</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13239,7 +13239,7 @@
         <v>822</v>
       </c>
       <c r="B818" s="5" t="s">
-        <v>1536</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -13247,7 +13247,7 @@
         <v>823</v>
       </c>
       <c r="B819" s="5" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13255,7 +13255,7 @@
         <v>824</v>
       </c>
       <c r="B820" s="5" t="s">
-        <v>1537</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13263,7 +13263,7 @@
         <v>825</v>
       </c>
       <c r="B821" s="5" t="s">
-        <v>1287</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13279,7 +13279,7 @@
         <v>828</v>
       </c>
       <c r="B823" s="5" t="s">
-        <v>1288</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13287,7 +13287,7 @@
         <v>829</v>
       </c>
       <c r="B824" s="5" t="s">
-        <v>1927</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13295,7 +13295,7 @@
         <v>830</v>
       </c>
       <c r="B825" s="5" t="s">
-        <v>1928</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13303,7 +13303,7 @@
         <v>831</v>
       </c>
       <c r="B826" s="5" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13311,7 +13311,7 @@
         <v>832</v>
       </c>
       <c r="B827" s="5" t="s">
-        <v>1289</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13319,7 +13319,7 @@
         <v>833</v>
       </c>
       <c r="B828" s="5" t="s">
-        <v>1290</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -13327,7 +13327,7 @@
         <v>834</v>
       </c>
       <c r="B829" s="5" t="s">
-        <v>1291</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13335,7 +13335,7 @@
         <v>835</v>
       </c>
       <c r="B830" s="5" t="s">
-        <v>1538</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13343,7 +13343,7 @@
         <v>836</v>
       </c>
       <c r="B831" s="5" t="s">
-        <v>1292</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13351,7 +13351,7 @@
         <v>837</v>
       </c>
       <c r="B832" s="5" t="s">
-        <v>1293</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -13359,7 +13359,7 @@
         <v>838</v>
       </c>
       <c r="B833" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -13367,7 +13367,7 @@
         <v>839</v>
       </c>
       <c r="B834" s="5" t="s">
-        <v>1929</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13375,7 +13375,7 @@
         <v>840</v>
       </c>
       <c r="B835" s="5" t="s">
-        <v>1294</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13383,7 +13383,7 @@
         <v>841</v>
       </c>
       <c r="B836" s="5" t="s">
-        <v>1295</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -13391,7 +13391,7 @@
         <v>842</v>
       </c>
       <c r="B837" s="5" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13399,7 +13399,7 @@
         <v>843</v>
       </c>
       <c r="B838" s="5" t="s">
-        <v>1930</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13407,7 +13407,7 @@
         <v>844</v>
       </c>
       <c r="B839" s="5" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13415,7 +13415,7 @@
         <v>845</v>
       </c>
       <c r="B840" s="5" t="s">
-        <v>1296</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13423,7 +13423,7 @@
         <v>846</v>
       </c>
       <c r="B841" s="5" t="s">
-        <v>1297</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13431,7 +13431,7 @@
         <v>847</v>
       </c>
       <c r="B842" s="5" t="s">
-        <v>1931</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13439,7 +13439,7 @@
         <v>848</v>
       </c>
       <c r="B843" s="5" t="s">
-        <v>1932</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -13447,7 +13447,7 @@
         <v>849</v>
       </c>
       <c r="B844" s="5" t="s">
-        <v>1933</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13455,7 +13455,7 @@
         <v>850</v>
       </c>
       <c r="B845" s="5" t="s">
-        <v>1539</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13463,7 +13463,7 @@
         <v>851</v>
       </c>
       <c r="B846" s="5" t="s">
-        <v>1298</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="847" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13471,7 +13471,7 @@
         <v>852</v>
       </c>
       <c r="B847" s="5" t="s">
-        <v>1540</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13479,7 +13479,7 @@
         <v>853</v>
       </c>
       <c r="B848" s="5" t="s">
-        <v>1934</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13487,7 +13487,7 @@
         <v>854</v>
       </c>
       <c r="B849" s="5" t="s">
-        <v>1299</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13495,7 +13495,7 @@
         <v>855</v>
       </c>
       <c r="B850" s="5" t="s">
-        <v>1541</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13503,7 +13503,7 @@
         <v>856</v>
       </c>
       <c r="B851" s="5" t="s">
-        <v>1935</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>857</v>
       </c>
       <c r="B852" s="5" t="s">
-        <v>1542</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13519,7 +13519,7 @@
         <v>858</v>
       </c>
       <c r="B853" s="5" t="s">
-        <v>1936</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13527,7 +13527,7 @@
         <v>859</v>
       </c>
       <c r="B854" s="5" t="s">
-        <v>1300</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13535,7 +13535,7 @@
         <v>860</v>
       </c>
       <c r="B855" s="5" t="s">
-        <v>1543</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13543,7 +13543,7 @@
         <v>861</v>
       </c>
       <c r="B856" s="5" t="s">
-        <v>1544</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="857" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13551,7 +13551,7 @@
         <v>862</v>
       </c>
       <c r="B857" s="5" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="858" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13559,7 +13559,7 @@
         <v>863</v>
       </c>
       <c r="B858" s="5" t="s">
-        <v>1937</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="859" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13567,7 +13567,7 @@
         <v>864</v>
       </c>
       <c r="B859" s="5" t="s">
-        <v>1938</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13575,7 +13575,7 @@
         <v>865</v>
       </c>
       <c r="B860" s="5" t="s">
-        <v>1939</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13583,7 +13583,7 @@
         <v>866</v>
       </c>
       <c r="B861" s="5" t="s">
-        <v>1940</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13591,7 +13591,7 @@
         <v>867</v>
       </c>
       <c r="B862" s="5" t="s">
-        <v>1941</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13599,7 +13599,7 @@
         <v>868</v>
       </c>
       <c r="B863" s="5" t="s">
-        <v>1942</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13607,7 +13607,7 @@
         <v>869</v>
       </c>
       <c r="B864" s="5" t="s">
-        <v>1545</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13615,7 +13615,7 @@
         <v>870</v>
       </c>
       <c r="B865" s="5" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13623,7 +13623,7 @@
         <v>871</v>
       </c>
       <c r="B866" s="5" t="s">
-        <v>1301</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="867" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
         <v>872</v>
       </c>
       <c r="B867" s="5" t="s">
-        <v>1943</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13639,7 +13639,7 @@
         <v>873</v>
       </c>
       <c r="B868" s="5" t="s">
-        <v>1944</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="869" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13647,7 +13647,7 @@
         <v>874</v>
       </c>
       <c r="B869" s="5" t="s">
-        <v>1302</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13655,7 +13655,7 @@
         <v>875</v>
       </c>
       <c r="B870" s="5" t="s">
-        <v>1945</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
         <v>876</v>
       </c>
       <c r="B871" s="5" t="s">
-        <v>1303</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="872" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13671,7 +13671,7 @@
         <v>877</v>
       </c>
       <c r="B872" s="5" t="s">
-        <v>1946</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="873" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13679,7 +13679,7 @@
         <v>878</v>
       </c>
       <c r="B873" s="5" t="s">
-        <v>1546</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13687,7 +13687,7 @@
         <v>879</v>
       </c>
       <c r="B874" s="5" t="s">
-        <v>1947</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>880</v>
       </c>
       <c r="B875" s="5" t="s">
-        <v>1948</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13703,7 +13703,7 @@
         <v>881</v>
       </c>
       <c r="B876" s="5" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -13711,7 +13711,7 @@
         <v>882</v>
       </c>
       <c r="B877" s="5" t="s">
-        <v>1949</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -13719,7 +13719,7 @@
         <v>883</v>
       </c>
       <c r="B878" s="5" t="s">
-        <v>1547</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13727,7 +13727,7 @@
         <v>884</v>
       </c>
       <c r="B879" s="5" t="s">
-        <v>1950</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
@@ -13735,7 +13735,7 @@
         <v>885</v>
       </c>
       <c r="B880" s="5" t="s">
-        <v>1304</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="881" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13743,7 +13743,7 @@
         <v>886</v>
       </c>
       <c r="B881" s="5" t="s">
-        <v>1951</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13751,7 +13751,7 @@
         <v>887</v>
       </c>
       <c r="B882" s="5" t="s">
-        <v>1952</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13759,7 +13759,7 @@
         <v>888</v>
       </c>
       <c r="B883" s="5" t="s">
-        <v>1305</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13767,7 +13767,7 @@
         <v>889</v>
       </c>
       <c r="B884" s="5" t="s">
-        <v>1548</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13775,7 +13775,7 @@
         <v>890</v>
       </c>
       <c r="B885" s="5" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13783,7 +13783,7 @@
         <v>891</v>
       </c>
       <c r="B886" s="5" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="887" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13791,7 +13791,7 @@
         <v>892</v>
       </c>
       <c r="B887" s="5" t="s">
-        <v>1953</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13799,7 +13799,7 @@
         <v>893</v>
       </c>
       <c r="B888" s="5" t="s">
-        <v>1954</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13807,7 +13807,7 @@
         <v>894</v>
       </c>
       <c r="B889" s="5" t="s">
-        <v>1306</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13815,7 +13815,7 @@
         <v>895</v>
       </c>
       <c r="B890" s="5" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13823,7 +13823,7 @@
         <v>896</v>
       </c>
       <c r="B891" s="5" t="s">
-        <v>1955</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13831,7 +13831,7 @@
         <v>897</v>
       </c>
       <c r="B892" s="5" t="s">
-        <v>1308</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
@@ -13839,7 +13839,7 @@
         <v>898</v>
       </c>
       <c r="B893" s="5" t="s">
-        <v>1309</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -13847,7 +13847,7 @@
         <v>899</v>
       </c>
       <c r="B894" s="5" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13855,7 +13855,7 @@
         <v>900</v>
       </c>
       <c r="B895" s="5" t="s">
-        <v>1310</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13863,7 +13863,7 @@
         <v>901</v>
       </c>
       <c r="B896" s="5" t="s">
-        <v>1311</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13871,7 +13871,7 @@
         <v>902</v>
       </c>
       <c r="B897" s="5" t="s">
-        <v>1549</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -13879,7 +13879,7 @@
         <v>903</v>
       </c>
       <c r="B898" s="5" t="s">
-        <v>1956</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13887,7 +13887,7 @@
         <v>904</v>
       </c>
       <c r="B899" s="5" t="s">
-        <v>1957</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13895,7 +13895,7 @@
         <v>905</v>
       </c>
       <c r="B900" s="5" t="s">
-        <v>1958</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13903,7 +13903,7 @@
         <v>906</v>
       </c>
       <c r="B901" s="5" t="s">
-        <v>1312</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13911,7 +13911,7 @@
         <v>907</v>
       </c>
       <c r="B902" s="5" t="s">
-        <v>1959</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13919,7 +13919,7 @@
         <v>908</v>
       </c>
       <c r="B903" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="904" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13927,7 +13927,7 @@
         <v>909</v>
       </c>
       <c r="B904" s="5" t="s">
-        <v>1550</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="905" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13935,7 +13935,7 @@
         <v>910</v>
       </c>
       <c r="B905" s="5" t="s">
-        <v>1551</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13943,7 +13943,7 @@
         <v>911</v>
       </c>
       <c r="B906" s="5" t="s">
-        <v>1960</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13951,7 +13951,7 @@
         <v>912</v>
       </c>
       <c r="B907" s="5" t="s">
-        <v>1552</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -13959,7 +13959,7 @@
         <v>913</v>
       </c>
       <c r="B908" s="5" t="s">
-        <v>1961</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="909" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13967,7 +13967,7 @@
         <v>914</v>
       </c>
       <c r="B909" s="5" t="s">
-        <v>1313</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13975,7 +13975,7 @@
         <v>915</v>
       </c>
       <c r="B910" s="5" t="s">
-        <v>1962</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13983,7 +13983,7 @@
         <v>916</v>
       </c>
       <c r="B911" s="5" t="s">
-        <v>1963</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13991,7 +13991,7 @@
         <v>917</v>
       </c>
       <c r="B912" s="5" t="s">
-        <v>1314</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -13999,7 +13999,7 @@
         <v>918</v>
       </c>
       <c r="B913" s="5" t="s">
-        <v>1964</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14007,7 +14007,7 @@
         <v>919</v>
       </c>
       <c r="B914" s="5" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14015,7 +14015,7 @@
         <v>920</v>
       </c>
       <c r="B915" s="5" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="916" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14023,7 +14023,7 @@
         <v>921</v>
       </c>
       <c r="B916" s="5" t="s">
-        <v>1965</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="917" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14031,7 +14031,7 @@
         <v>922</v>
       </c>
       <c r="B917" s="5" t="s">
-        <v>1966</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="918" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14039,7 +14039,7 @@
         <v>923</v>
       </c>
       <c r="B918" s="5" t="s">
-        <v>1967</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14047,7 +14047,7 @@
         <v>924</v>
       </c>
       <c r="B919" s="5" t="s">
-        <v>1968</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="920" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14055,7 +14055,7 @@
         <v>925</v>
       </c>
       <c r="B920" s="5" t="s">
-        <v>1969</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="921" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
         <v>926</v>
       </c>
       <c r="B921" s="5" t="s">
-        <v>1970</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14071,7 +14071,7 @@
         <v>927</v>
       </c>
       <c r="B922" s="5" t="s">
-        <v>1315</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14079,7 +14079,7 @@
         <v>928</v>
       </c>
       <c r="B923" s="5" t="s">
-        <v>1316</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="924" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14087,7 +14087,7 @@
         <v>929</v>
       </c>
       <c r="B924" s="5" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="925" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14095,7 +14095,7 @@
         <v>930</v>
       </c>
       <c r="B925" s="5" t="s">
-        <v>1971</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14103,7 +14103,7 @@
         <v>931</v>
       </c>
       <c r="B926" s="5" t="s">
-        <v>1972</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14111,7 +14111,7 @@
         <v>932</v>
       </c>
       <c r="B927" s="5" t="s">
-        <v>1973</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="928" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14119,7 +14119,7 @@
         <v>933</v>
       </c>
       <c r="B928" s="5" t="s">
-        <v>1317</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="929" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14127,7 +14127,7 @@
         <v>934</v>
       </c>
       <c r="B929" s="5" t="s">
-        <v>1318</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14135,7 +14135,7 @@
         <v>935</v>
       </c>
       <c r="B930" s="5" t="s">
-        <v>1974</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14143,7 +14143,7 @@
         <v>936</v>
       </c>
       <c r="B931" s="5" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14151,7 +14151,7 @@
         <v>937</v>
       </c>
       <c r="B932" s="5" t="s">
-        <v>1975</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="933" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14159,7 +14159,7 @@
         <v>938</v>
       </c>
       <c r="B933" s="5" t="s">
-        <v>1553</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14167,7 +14167,7 @@
         <v>939</v>
       </c>
       <c r="B934" s="5" t="s">
-        <v>1319</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14175,7 +14175,7 @@
         <v>940</v>
       </c>
       <c r="B935" s="5" t="s">
-        <v>1554</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14183,7 +14183,7 @@
         <v>941</v>
       </c>
       <c r="B936" s="5" t="s">
-        <v>1976</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14191,7 +14191,7 @@
         <v>942</v>
       </c>
       <c r="B937" s="5" t="s">
-        <v>1555</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
         <v>943</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="939" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14207,7 +14207,7 @@
         <v>944</v>
       </c>
       <c r="B939" s="5" t="s">
-        <v>1977</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14215,7 +14215,7 @@
         <v>945</v>
       </c>
       <c r="B940" s="5" t="s">
-        <v>1978</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="941" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14223,7 +14223,7 @@
         <v>946</v>
       </c>
       <c r="B941" s="5" t="s">
-        <v>1979</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="942" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14231,7 +14231,7 @@
         <v>947</v>
       </c>
       <c r="B942" s="5" t="s">
-        <v>1320</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="943" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14239,7 +14239,7 @@
         <v>948</v>
       </c>
       <c r="B943" s="5" t="s">
-        <v>1556</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14247,7 +14247,7 @@
         <v>949</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1980</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="945" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14255,7 +14255,7 @@
         <v>950</v>
       </c>
       <c r="B945" s="5" t="s">
-        <v>1981</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="946" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14263,7 +14263,7 @@
         <v>951</v>
       </c>
       <c r="B946" s="5" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14271,7 +14271,7 @@
         <v>952</v>
       </c>
       <c r="B947" s="5" t="s">
-        <v>1982</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14279,7 +14279,7 @@
         <v>953</v>
       </c>
       <c r="B948" s="5" t="s">
-        <v>1557</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="949" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14287,7 +14287,7 @@
         <v>954</v>
       </c>
       <c r="B949" s="5" t="s">
-        <v>1558</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
@@ -14295,7 +14295,7 @@
         <v>955</v>
       </c>
       <c r="B950" s="5" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="951" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14311,7 +14311,7 @@
         <v>957</v>
       </c>
       <c r="B952" s="5" t="s">
-        <v>1983</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="953" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14319,7 +14319,7 @@
         <v>958</v>
       </c>
       <c r="B953" s="5" t="s">
-        <v>1984</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="954" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14327,7 +14327,7 @@
         <v>959</v>
       </c>
       <c r="B954" s="5" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -14335,7 +14335,7 @@
         <v>960</v>
       </c>
       <c r="B955" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14343,7 +14343,7 @@
         <v>961</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>1985</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="957" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14351,7 +14351,7 @@
         <v>962</v>
       </c>
       <c r="B957" s="5" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14359,7 +14359,7 @@
         <v>963</v>
       </c>
       <c r="B958" s="5" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="959" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14367,7 +14367,7 @@
         <v>964</v>
       </c>
       <c r="B959" s="5" t="s">
-        <v>1986</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14375,7 +14375,7 @@
         <v>965</v>
       </c>
       <c r="B960" s="5" t="s">
-        <v>1559</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="961" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14383,7 +14383,7 @@
         <v>966</v>
       </c>
       <c r="B961" s="5" t="s">
-        <v>1560</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="962" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14391,7 +14391,7 @@
         <v>967</v>
       </c>
       <c r="B962" s="5" t="s">
-        <v>1325</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -14399,7 +14399,7 @@
         <v>968</v>
       </c>
       <c r="B963" s="5" t="s">
-        <v>1326</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="964" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14407,7 +14407,7 @@
         <v>969</v>
       </c>
       <c r="B964" s="5" t="s">
-        <v>1987</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="965" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14415,7 +14415,7 @@
         <v>970</v>
       </c>
       <c r="B965" s="5" t="s">
-        <v>1988</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="966" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14423,7 +14423,7 @@
         <v>971</v>
       </c>
       <c r="B966" s="5" t="s">
-        <v>1989</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="967" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14431,7 +14431,7 @@
         <v>972</v>
       </c>
       <c r="B967" s="5" t="s">
-        <v>1990</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14439,7 +14439,7 @@
         <v>973</v>
       </c>
       <c r="B968" s="5" t="s">
-        <v>1561</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
@@ -14447,7 +14447,7 @@
         <v>974</v>
       </c>
       <c r="B969" s="5" t="s">
-        <v>1991</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -14455,7 +14455,7 @@
         <v>975</v>
       </c>
       <c r="B970" s="5" t="s">
-        <v>1992</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="971" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14463,7 +14463,7 @@
         <v>976</v>
       </c>
       <c r="B971" s="5" t="s">
-        <v>1993</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -14471,7 +14471,7 @@
         <v>977</v>
       </c>
       <c r="B972" s="5" t="s">
-        <v>1994</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="973" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14479,7 +14479,7 @@
         <v>978</v>
       </c>
       <c r="B973" s="5" t="s">
-        <v>1562</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="974" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14487,7 +14487,7 @@
         <v>979</v>
       </c>
       <c r="B974" s="5" t="s">
-        <v>1327</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="975" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14495,7 +14495,7 @@
         <v>980</v>
       </c>
       <c r="B975" s="5" t="s">
-        <v>1995</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="976" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14503,7 +14503,7 @@
         <v>981</v>
       </c>
       <c r="B976" s="5" t="s">
-        <v>1328</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="977" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14511,7 +14511,7 @@
         <v>982</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>1996</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="978" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14519,7 +14519,7 @@
         <v>983</v>
       </c>
       <c r="B978" s="5" t="s">
-        <v>1329</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="979" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14527,7 +14527,7 @@
         <v>984</v>
       </c>
       <c r="B979" s="5" t="s">
-        <v>1330</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="980" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14535,7 +14535,7 @@
         <v>985</v>
       </c>
       <c r="B980" s="5" t="s">
-        <v>1997</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="981" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14543,7 +14543,7 @@
         <v>986</v>
       </c>
       <c r="B981" s="5" t="s">
-        <v>1998</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="982" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14551,7 +14551,7 @@
         <v>987</v>
       </c>
       <c r="B982" s="5" t="s">
-        <v>1999</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="983" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -14559,7 +14559,7 @@
         <v>988</v>
       </c>
       <c r="B983" s="5" t="s">
-        <v>2000</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -14567,7 +14567,7 @@
         <v>989</v>
       </c>
       <c r="B984" s="5" t="s">
-        <v>2001</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="985" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14575,7 +14575,7 @@
         <v>990</v>
       </c>
       <c r="B985" s="5" t="s">
-        <v>1563</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="986" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14583,7 +14583,7 @@
         <v>991</v>
       </c>
       <c r="B986" s="5" t="s">
-        <v>2002</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="987" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14591,7 +14591,7 @@
         <v>992</v>
       </c>
       <c r="B987" s="5" t="s">
-        <v>2003</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="988" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14599,7 +14599,7 @@
         <v>993</v>
       </c>
       <c r="B988" s="5" t="s">
-        <v>1564</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="989" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14607,7 +14607,7 @@
         <v>994</v>
       </c>
       <c r="B989" s="5" t="s">
-        <v>1565</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14615,7 +14615,7 @@
         <v>995</v>
       </c>
       <c r="B990" s="5" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="991" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14623,7 +14623,7 @@
         <v>996</v>
       </c>
       <c r="B991" s="5" t="s">
-        <v>2004</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="992" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14631,7 +14631,7 @@
         <v>997</v>
       </c>
       <c r="B992" s="5" t="s">
-        <v>1332</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -14639,7 +14639,7 @@
         <v>998</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>1333</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="994" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -14647,7 +14647,7 @@
         <v>999</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>2005</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="995" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14655,7 +14655,7 @@
         <v>1000</v>
       </c>
       <c r="B995" s="5" t="s">
-        <v>2006</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="996" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14663,7 +14663,7 @@
         <v>1001</v>
       </c>
       <c r="B996" s="5" t="s">
-        <v>2007</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -14671,7 +14671,7 @@
         <v>1002</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="998" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -14679,7 +14679,7 @@
         <v>1003</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>2008</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="999" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -14687,7 +14687,7 @@
         <v>1004</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>1566</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14695,7 +14695,7 @@
         <v>1005</v>
       </c>
       <c r="B1000" s="5" t="s">
-        <v>1335</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1001" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14703,7 +14703,7 @@
         <v>1006</v>
       </c>
       <c r="B1001" s="5" t="s">
-        <v>1567</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1002" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14711,7 +14711,7 @@
         <v>1007</v>
       </c>
       <c r="B1002" s="5" t="s">
-        <v>2009</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1003" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14719,7 +14719,7 @@
         <v>1008</v>
       </c>
       <c r="B1003" s="5" t="s">
-        <v>2010</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1004" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14727,7 +14727,7 @@
         <v>1009</v>
       </c>
       <c r="B1004" s="5" t="s">
-        <v>1336</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
@@ -14735,7 +14735,7 @@
         <v>1010</v>
       </c>
       <c r="B1005" s="5" t="s">
-        <v>1337</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1006" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14743,7 +14743,7 @@
         <v>1011</v>
       </c>
       <c r="B1006" s="5" t="s">
-        <v>1568</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
@@ -14751,7 +14751,7 @@
         <v>1012</v>
       </c>
       <c r="B1007" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1008" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14759,7 +14759,7 @@
         <v>1013</v>
       </c>
       <c r="B1008" s="5" t="s">
-        <v>2011</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1009" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14767,7 +14767,7 @@
         <v>1014</v>
       </c>
       <c r="B1009" s="5" t="s">
-        <v>2012</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1010" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -14775,7 +14775,7 @@
         <v>1015</v>
       </c>
       <c r="B1010" s="5" t="s">
-        <v>2013</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1011" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14783,7 +14783,7 @@
         <v>1016</v>
       </c>
       <c r="B1011" s="5" t="s">
-        <v>2014</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1012" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -14791,7 +14791,7 @@
         <v>1017</v>
       </c>
       <c r="B1012" s="5" t="s">
-        <v>2015</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1013" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -14799,7 +14799,7 @@
         <v>1018</v>
       </c>
       <c r="B1013" s="5" t="s">
-        <v>2016</v>
+        <v>1948</v>
       </c>
     </row>
   </sheetData>
